--- a/_ref/esko field map.xlsx
+++ b/_ref/esko field map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-37900" yWindow="-780" windowWidth="35600" windowHeight="19960"/>
+    <workbookView xWindow="-38280" yWindow="0" windowWidth="38200" windowHeight="21080" tabRatio="240"/>
   </bookViews>
   <sheets>
     <sheet name="tx_jobs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="145">
   <si>
     <t>id_tx</t>
   </si>
@@ -222,9 +222,6 @@
     <t>includeFiles: "false"</t>
   </si>
   <si>
-    <t>i4jobsdb tx_jobs</t>
-  </si>
-  <si>
     <t>json packet to esko from i4jobs</t>
   </si>
   <si>
@@ -280,13 +277,212 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>id_transactions</t>
+  </si>
+  <si>
+    <t>tr_ClientCode</t>
+  </si>
+  <si>
+    <t>GLAD</t>
+  </si>
+  <si>
+    <t>tr_JobNo</t>
+  </si>
+  <si>
+    <t>tr_ClientJobNo</t>
+  </si>
+  <si>
+    <t>124003</t>
+  </si>
+  <si>
+    <t>tr_JobTitle</t>
+  </si>
+  <si>
+    <t>Glad ForceFlex Tall Kitchen 23 ct</t>
+  </si>
+  <si>
+    <t>tr_JobType</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>tr_ProjMgrFirstName</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>tr_ProjMgrLastName</t>
+  </si>
+  <si>
+    <t>Bermudez</t>
+  </si>
+  <si>
+    <t>tr_StartDate</t>
+  </si>
+  <si>
+    <t>2015-02-26</t>
+  </si>
+  <si>
+    <t>tr_DueDate</t>
+  </si>
+  <si>
+    <t>2015-03-04</t>
+  </si>
+  <si>
+    <t>tr_Status</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>tr_Priority</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>tr_Pending</t>
+  </si>
+  <si>
+    <t>tr_StatusNotes</t>
+  </si>
+  <si>
+    <t>tr_JobDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packaging 2-26 RB Preflight:  Reference pick up job # 8717 (207268.011).  From Brad: Please note that there were minimal changes done to these.  1)Bag images and cross sell images swapped showing black drawstrings. 2) Legal info on bottom panel or flap with year update, etc. 3) Right side panel has asterisk change. 4) The ???NEW?? violators removed. 5) The recycle symbol/food warning lockup changed.  Note: Renderings have been done for this sku.  </t>
+  </si>
+  <si>
+    <t>tr_AcctMgrFirstName</t>
+  </si>
+  <si>
+    <t>Infowit</t>
+  </si>
+  <si>
+    <t>tr_AcctMgrLastName</t>
+  </si>
+  <si>
+    <t>zSupport</t>
+  </si>
+  <si>
+    <t>tr_CloroxWorkOrderNumber</t>
+  </si>
+  <si>
+    <t>tr_CloroxPGNumber</t>
+  </si>
+  <si>
+    <t>tr_CloroxSpecNumber</t>
+  </si>
+  <si>
+    <t>207268</t>
+  </si>
+  <si>
+    <t>tr_UPC</t>
+  </si>
+  <si>
+    <t>12587-78740-3</t>
+  </si>
+  <si>
+    <t>tr_TypeOfProof</t>
+  </si>
+  <si>
+    <t>Epson Proof</t>
+  </si>
+  <si>
+    <t>tr_ProofStock</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>tr_PrintSubstrate</t>
+  </si>
+  <si>
+    <t>Chipboard</t>
+  </si>
+  <si>
+    <t>tr_PrintMethod</t>
+  </si>
+  <si>
+    <t>Lithograph</t>
+  </si>
+  <si>
+    <t>tr_PrintQueue</t>
+  </si>
+  <si>
+    <t>=Select One=</t>
+  </si>
+  <si>
+    <t>tr_PrinterName</t>
+  </si>
+  <si>
+    <t>Rock Tenn</t>
+  </si>
+  <si>
+    <t>tr_PrinterLocation</t>
+  </si>
+  <si>
+    <t>Conway</t>
+  </si>
+  <si>
+    <t>tr_SupplierCode</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>tr_ShippingInfo</t>
+  </si>
+  <si>
+    <t>tr_PhotographyOnly</t>
+  </si>
+  <si>
+    <t>tr_CollateralNo</t>
+  </si>
+  <si>
+    <t>tr_timestamp</t>
+  </si>
+  <si>
+    <t>0000-00-00 00:00:00</t>
+  </si>
+  <si>
+    <r>
+      <t>i4jobs-db</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> tx_transaction</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i4jobs-db</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> tx_jobs</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -317,21 +513,48 @@
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -346,13 +569,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -695,511 +923,813 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H48" sqref="A1:H48"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="72.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="65.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="6" customWidth="1"/>
+    <col min="8" max="8" width="53.5" customWidth="1"/>
+    <col min="9" max="9" width="6" style="6" customWidth="1"/>
+    <col min="10" max="10" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9130</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="3">
+        <v>124003</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44273</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="J30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="J31" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="G32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="G33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="E34" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="D35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
+      <c r="E35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="D36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="3" t="str">
+      <c r="E36" s="4" t="str">
         <f>"044600123456"</f>
         <v>044600123456</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="3"/>
+      <c r="H36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
+    <row r="37" spans="1:10">
+      <c r="D37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="4">
+        <v>80</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="D38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="3">
+      <c r="E38" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="J40" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="D41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="J41" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="D42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="D43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="D44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="D45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="D46" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E37" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="E39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="G40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="D47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="D48" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="3" scale="77" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="3" scale="67" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
